--- a/fund/funds_full_info.xlsx
+++ b/fund/funds_full_info.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,12 +692,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -707,132 +707,132 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.09%</t>
+          <t>28.51%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.62%</t>
+          <t>-1.80%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.78%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.68%</t>
+          <t>-0.07%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>37.89%</t>
+          <t>19.63%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>79.76%</t>
+          <t>35.50%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>50.62%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25.97%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>20.10%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>97.67%</t>
+          <t>714.32%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>13.46%</t>
+          <t>6.53%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>27.55%</t>
+          <t>19.69%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.75%</t>
+          <t>-1.63%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>11.49%</t>
+          <t>5.08%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>9.56%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.80%</t>
+          <t>-3.26%</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>23.64%</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>-6.71%</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>26.02%</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>-19.05%</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>17.19%</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>-22.73%</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25.72%</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>15.29%</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>7.25%</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -842,67 +842,67 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>85.82%</t>
+          <t>4.88%</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>14.18%</t>
+          <t>95.12%</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>49.94</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>43.92</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>45.98</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>45.76</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>47.14</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>49.91</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>40.60</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2017-03-28</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -912,32 +912,32 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>盛丰衍</t>
+          <t>董阳阳</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>1年又244天</t>
+          <t>3年又235天</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>97.67%</t>
+          <t>44.06%</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2001-12-18</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>22.75%</t>
+          <t>19.03%</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.49</t>
         </is>
       </c>
     </row>
@@ -947,252 +947,252 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000008</t>
+          <t>000002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实中证500ETF联接A</t>
+          <t>华夏成长混合(后端)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>联接基金</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.87%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.62%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-3.29%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>17.37%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31.41%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>37.79%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-8.64%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>82.39%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.47%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-4.69%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.49%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-9.90%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>30.71%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-12.12%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>25.69%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-30.74%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-14.27%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>34.43%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>34.80%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>32.95%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>67.05%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>19.24</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>20.80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>19.43</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>16.56</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>15.61</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2016-01-05</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>至今</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>何如</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>4年又318天</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2013-03-22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>21.41%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1202,252 +1202,4587 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>债券型</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13.36%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-2.01%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-2.53%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-2.22%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>18.89%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>25.17%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>40.36%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>14.91%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-14.43%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>17.09%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-4.53%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>8.95%</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>5.64%</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-7.92%</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>21.64%</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-4.81%</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>28.91%</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-17.47%</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-5.31%</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-23.08%</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-12.32%</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>51.18%</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>46.09%</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>53.91%</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0.02%</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>2018-09-12</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>彭海平</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>2年又67天</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>40.36%</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>2013-03-20</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>23.01%</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海可转债债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>债券型</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12.85%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2.02%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-2.54%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-2.33%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>18.66%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>24.76%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>40.12%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>14.25%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-15.65%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>16.99%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-4.65%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>9.08%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>5.49%</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-7.79%</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>21.64%</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-4.81%</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>29.07%</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-17.69%</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-5.64%</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-23.40%</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-11.41%</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>51.67%</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>28.21%</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>71.79%</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>2018-09-12</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>彭海平</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>2年又67天</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>39.91%</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>2013-03-20</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>23.13%</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实增强信用定期债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>定开债券</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-0.45%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-1.50%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>9.76%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>17.86%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>24.37%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>43.51%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-0.74%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2.43%</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>8.95%</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>20.58%</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>79.42%</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>2016-12-02</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>刘宁</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>3年又351天</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>20.11%</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>2013-03-08</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.09%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.62%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5.68%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>37.89%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>79.76%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>97.67%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13.46%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>27.55%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>11.49%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>9.56%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.80%</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>85.82%</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>14.18%</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>2019-03-19</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>盛丰衍</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>1年又244天</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>97.67%</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>2019-03-19</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>22.75%</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>联接基金</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.87%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.62%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-3.29%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>17.37%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>31.41%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>37.79%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.45%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-8.64%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>82.39%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>6.47%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-4.69%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>6.20%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-9.90%</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>30.71%</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-12.12%</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>25.69%</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-30.74%</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-14.27%</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>34.43%</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>34.80%</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>32.95%</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>67.05%</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>2016-01-05</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>何如</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>4年又318天</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>2013-03-22</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>21.41%</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>000009</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>易方达天天理财货币A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>货币型</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1.80%</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.04%</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.18%</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>0.51%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>0.93%</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2.12%</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>4.79%</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>8.83%</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>16.03%</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>30.40%</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>0.50%</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>0.43%</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0.58%</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0.65%</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>0.62%</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>0.69%</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>0.69%</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2.56%</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>3.71%</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>2.62%</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>3.89%</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>5.08%</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>---</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>---</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>2020-06-30</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>8.97%</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>91.03%</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>0.02%</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>138.28</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>123.92</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>138.28</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>168.82</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>175.69</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>197.47</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>232.53</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>279.09</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>345.18</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>2016-03-29</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>至今</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>石大怿</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>4年又234天</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>14.80%</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>2013-03-04</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>0.09%</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>6.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达天天理财货币B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>货币型</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>5.29%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>9.62%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>17.43%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>32.83%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.71%</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>3.96%</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2.87%</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>4.14%</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>5.33%</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>98.11%</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>162.05</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>118.64</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>162.05</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>208.32</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>174.17</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>236.71</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>317.63</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>375.17</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>332.62</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>2016-03-29</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>石大怿</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>4年又234天</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>16.08%</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>2013-03-04</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.67%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.69%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11.52%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>53.20%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>57.63%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>94.27%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>64.14%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>98.58%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>3786.25%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>23.99%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>19.01%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-16.01%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>13.18%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>28.46%</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-11.29%</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>44.70%</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-19.57%</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>34.94%</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>-11.29%</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>28.18%</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>14.94%</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>5.62%</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>15.84%</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>84.16%</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>49.03</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>41.12</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>2017-05-02</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>陈伟彦</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>3年又200天</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>104.05%</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>2004-08-11</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>22.35%</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合(后端)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达天天理财货币R</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>货币型</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>5.31%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>9.65%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>17.49%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>32.94%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>3.97%</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>4.26%</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2.88%</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>4.15%</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>5.35%</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>37.43</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>37.43</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>31.79</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>2016-03-29</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>石大怿</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>4年又234天</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>16.14%</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>2013-03-04</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏聚利债券</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>债券型</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.26%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.01%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>18.35%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>28.38%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>37.35%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>34.53%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>39.05%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>57.40%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>3.81%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>6.48%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-5.61%</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>11.53%</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-0.97%</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>16.00%</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-3.87%</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>7.83%</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>99.94%</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>2018-01-08</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>何家琪</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>2年又314天</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>34.99%</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>2013-03-19</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>13.40%</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏纯债债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>债券型</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.16%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-0.56%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2.89%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>7.72%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15.03%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>19.80%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>37.53%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1.47%</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1.25%</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>4.63%</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>7.48%</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>11.51%</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>7.68%</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>86.01%</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>13.99%</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>30.07</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>2017-09-08</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>柳万军</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>3年又71天</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>15.03%</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>2013-03-08</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏纯债债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>债券型</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-0.16%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.08%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.16%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-0.73%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>6.79%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>13.62%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>17.25%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>33.20%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-0.16%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1.43%</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1.93%</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>11.12%</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>7.19%</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>51.89%</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>48.11%</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>2017-09-08</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>柳万军</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>3年又71天</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>13.42%</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>2013-03-08</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通可持续混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>54.39%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-4.55%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-1.70%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>4.33%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>39.72%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>56.64%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>120.49%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>80.96%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>69.16%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>363.29%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>13.89%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>37.90%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-4.60%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>8.42%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>10.70%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>28.31%</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-9.68%</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>54.54%</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-22.74%</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>-24.20%</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>45.56%</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>60.94%</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>2018-03-07</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>夏钦</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>2年又256天</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>87.27%</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>2013-03-27</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>24.50%</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.06%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-1.58%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5.82%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>34.05%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>65.77%</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>137.52%</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>78.41%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>126.70%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>322.12%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>13.18%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>21.39%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>18.46%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>11.37%</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>25.56%</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>-7.19%</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>66.50%</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>-23.35%</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>35.97%</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>-13.28%</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>58.15%</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>18.17%</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>55.25%</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>44.75%</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>2017-01-05</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>詹成</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>3年又317天</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>156.76%</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>2013-03-19</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>19.83%</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-2.02%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5.33%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>34.29%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>54.78%</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>94.59%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>46.43%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>42.07%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>467.05%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>6.45%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>28.96%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-5.27%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>13.10%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>8.93%</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>-5.24%</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>26.02%</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-10.69%</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>47.12%</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>-27.25%</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>13.43%</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>-20.29%</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>43.14%</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>11.25%</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>13.30%</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>7.91%</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>92.09%</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>67.32</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>55.68</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>54.44</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>51.99</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>56.11</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>郑晓辉</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>112天</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>11.74%</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>2006-11-24</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>24.93%</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大摩双利增强债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>债券型</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.40%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3.86%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6.81%</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>12.35%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18.72%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>28.12%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>59.50%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2.84%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1.93%</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>2.19%</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>5.94%</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2.01%</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>3.95%</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>11.54%</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>14.53%</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>86.48%</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>13.52%</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>2015-02-27</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>张雪</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>5年又265天</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>38.94%</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>2013-03-26</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩双利增强债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>债券型</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3.66%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6.40%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>11.52%</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>17.37%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>25.77%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>56.46%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2.72%</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>-0.09%</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>5.49%</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>6.01%</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>1.58%</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>12.15%</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>14.17%</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>45.50%</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>54.50%</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>2015-02-27</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>至今</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>张雪</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>5年又265天</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>37.13%</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>2013-03-26</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>2.54</t>
         </is>
       </c>
     </row>
